--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Risikoanalyse_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Risikoanalyse_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47597D0B-7669-4D04-AC96-0575DD4E225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D69D7C-68B0-420C-BEBE-A7D932E36EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBAA65-4BAE-4DA2-A56B-D32A547D3CA4}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
